--- a/alliance.xlsx
+++ b/alliance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kejzlar/Dropbox/scripts/lf-ocr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E189BAF-A16E-4642-B0E1-498A3E57EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E74B39-4E89-B748-AE5E-C2210CEA0A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2900" windowWidth="27240" windowHeight="16440" xr2:uid="{6580B086-6287-3E41-B20C-A140F1D86D07}"/>
+    <workbookView xWindow="2780" yWindow="2900" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6580B086-6287-3E41-B20C-A140F1D86D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -373,9 +373,6 @@
     <t>CastyDRabbit</t>
   </si>
   <si>
-    <t>Cheesecake</t>
-  </si>
-  <si>
     <t>chenjun</t>
   </si>
   <si>
@@ -406,12 +403,6 @@
     <t>dryfondue</t>
   </si>
   <si>
-    <t>Dumpling</t>
-  </si>
-  <si>
-    <t>e.player</t>
-  </si>
-  <si>
     <t>Elo785</t>
   </si>
   <si>
@@ -457,9 +448,6 @@
     <t>Kevin1707</t>
   </si>
   <si>
-    <t>Khaleesi</t>
-  </si>
-  <si>
     <t>KingLiz</t>
   </si>
   <si>
@@ -505,12 +493,6 @@
     <t>MR.Grinch</t>
   </si>
   <si>
-    <t>Mr.Skieyagi69</t>
-  </si>
-  <si>
-    <t>MΛDMONK</t>
-  </si>
-  <si>
     <t>Niimphy</t>
   </si>
   <si>
@@ -523,9 +505,6 @@
     <t>OldManLogan</t>
   </si>
   <si>
-    <t>Oly-Prime</t>
-  </si>
-  <si>
     <t>Omilixo</t>
   </si>
   <si>
@@ -571,9 +550,6 @@
     <t>ShaRopi69</t>
   </si>
   <si>
-    <t>SilentSlayer</t>
-  </si>
-  <si>
     <t>SoulKnightSK</t>
   </si>
   <si>
@@ -589,9 +565,6 @@
     <t>Thyri</t>
   </si>
   <si>
-    <t>PattiCakes</t>
-  </si>
-  <si>
     <t>TrebleMaker</t>
   </si>
   <si>
@@ -640,21 +613,12 @@
     <t>JJLEGEND70</t>
   </si>
   <si>
-    <t>% Daeloan</t>
-  </si>
-  <si>
     <t>RockeroFoo</t>
   </si>
   <si>
     <t>finanzamttt</t>
   </si>
   <si>
-    <t>= =TrebleMaker</t>
-  </si>
-  <si>
-    <t>VON®</t>
-  </si>
-  <si>
     <t>TearsOfCthulhu</t>
   </si>
   <si>
@@ -670,21 +634,9 @@
     <t>OldManLogan7</t>
   </si>
   <si>
-    <t>---Loki---</t>
-  </si>
-  <si>
-    <t>(Ares)</t>
-  </si>
-  <si>
     <t>dumpeng</t>
   </si>
   <si>
-    <t>_Khaleesi_</t>
-  </si>
-  <si>
-    <t>PolarBear</t>
-  </si>
-  <si>
     <t>BasiLFAWLTY</t>
   </si>
   <si>
@@ -697,12 +649,6 @@
     <t>Dropkick4</t>
   </si>
   <si>
-    <t>=" SoulKnightSK</t>
-  </si>
-  <si>
-    <t>~  ShaRopi69</t>
-  </si>
-  <si>
     <t>Wasores1</t>
   </si>
   <si>
@@ -818,13 +764,214 @@
   </si>
   <si>
     <t>Pts</t>
+  </si>
+  <si>
+    <t>7RS59AN6</t>
+  </si>
+  <si>
+    <t>Aileen</t>
+  </si>
+  <si>
+    <t>7FB3MA8U</t>
+  </si>
+  <si>
+    <t>Alecks_</t>
+  </si>
+  <si>
+    <t>74BQJATP</t>
+  </si>
+  <si>
+    <t>Amcoone</t>
+  </si>
+  <si>
+    <t>PMDSGAW9</t>
+  </si>
+  <si>
+    <t>CharLee</t>
+  </si>
+  <si>
+    <t>7WP99A96</t>
+  </si>
+  <si>
+    <t>Daut</t>
+  </si>
+  <si>
+    <t>7RB4FADN</t>
+  </si>
+  <si>
+    <t>Dinamit22</t>
+  </si>
+  <si>
+    <t>PZC5LAML</t>
+  </si>
+  <si>
+    <t>Garrrfield</t>
+  </si>
+  <si>
+    <t>7NSPZA8N</t>
+  </si>
+  <si>
+    <t>Gmmaj</t>
+  </si>
+  <si>
+    <t>7LS4WAXK</t>
+  </si>
+  <si>
+    <t>Grizzly</t>
+  </si>
+  <si>
+    <t>7GZ7JAJZ</t>
+  </si>
+  <si>
+    <t>Horizen</t>
+  </si>
+  <si>
+    <t>74W89ADT</t>
+  </si>
+  <si>
+    <t>itaca90909090</t>
+  </si>
+  <si>
+    <t>Kevo1707</t>
+  </si>
+  <si>
+    <t>PHXRCAV5</t>
+  </si>
+  <si>
+    <t>Kingkõõbra</t>
+  </si>
+  <si>
+    <t>74ZRNAZ7</t>
+  </si>
+  <si>
+    <t>Lucky6612</t>
+  </si>
+  <si>
+    <t>76W92AHN</t>
+  </si>
+  <si>
+    <t>Nefi85</t>
+  </si>
+  <si>
+    <t>7LN63AKQ</t>
+  </si>
+  <si>
+    <t>NightKnight2023</t>
+  </si>
+  <si>
+    <t>74UMKABQ</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>767MXA8T</t>
+  </si>
+  <si>
+    <t>Nyarlathotep</t>
+  </si>
+  <si>
+    <t>7BC38A54</t>
+  </si>
+  <si>
+    <t>Permobil</t>
+  </si>
+  <si>
+    <t>7RE7SASR</t>
+  </si>
+  <si>
+    <t>Pilot_</t>
+  </si>
+  <si>
+    <t>76W5ZASP</t>
+  </si>
+  <si>
+    <t>SengCheng</t>
+  </si>
+  <si>
+    <t>7BFDTAN6</t>
+  </si>
+  <si>
+    <t>Sevenupurs</t>
+  </si>
+  <si>
+    <t>7R5LSA8P</t>
+  </si>
+  <si>
+    <t>ShyDust</t>
+  </si>
+  <si>
+    <t>7LCK7AKH</t>
+  </si>
+  <si>
+    <t>SKIF3006</t>
+  </si>
+  <si>
+    <t>7BLGLA7T</t>
+  </si>
+  <si>
+    <t>Stefan333</t>
+  </si>
+  <si>
+    <t>76F35A38</t>
+  </si>
+  <si>
+    <t>The RoastPotato</t>
+  </si>
+  <si>
+    <t>7B2ZUAVK</t>
+  </si>
+  <si>
+    <t>VonTempsky</t>
+  </si>
+  <si>
+    <t>&lt;#F0F&gt;Horizen</t>
+  </si>
+  <si>
+    <t>Garrrrfield</t>
+  </si>
+  <si>
+    <t>itaca909090</t>
+  </si>
+  <si>
+    <t>TheRoastPotato</t>
+  </si>
+  <si>
+    <t>Kínkōöbra</t>
+  </si>
+  <si>
+    <t>7673XADV</t>
+  </si>
+  <si>
+    <t>LeooGabriel</t>
+  </si>
+  <si>
+    <t>Anicoone</t>
+  </si>
+  <si>
+    <t>SKIP5006</t>
+  </si>
+  <si>
+    <t>-Nyarlathotep-</t>
+  </si>
+  <si>
+    <t>Ghimijay</t>
+  </si>
+  <si>
+    <t>Rev01707</t>
+  </si>
+  <si>
+    <t>Kīngkōōbra</t>
+  </si>
+  <si>
+    <t>Dinatmit22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,6 +1005,18 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -879,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -892,6 +1051,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD26B7FF-A126-CE4F-94DA-6B969F56876A}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -1252,61 +1413,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="e">
         <f>VLOOKUP(A2,IDs!A:B,2,FALSE)</f>
-        <v>Ares</v>
-      </c>
-      <c r="C2" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" s="6" t="e" cm="1">
         <f t="array" ref="C2">VLOOKUP(A2&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>32280740</v>
+        <v>#N/A</v>
       </c>
       <c r="D2" s="6" t="e" cm="1">
         <f t="array" ref="D2">(C2-VLOOKUP(A2&amp;"|"&amp;(SupportLists!$B$3-1),CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0))/C2</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="6" cm="1">
+      <c r="F2" s="6" t="e" cm="1">
         <f t="array" ref="F2">VLOOKUP(A2&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},ADs!$A$1:$A$10000&amp;"|"&amp;ADs!$E$1:$E$10000,ADs!$C$1:$C$10000),2,0)</f>
-        <v>78973289</v>
+        <v>#N/A</v>
       </c>
       <c r="G2" s="6" t="e" cm="1">
         <f t="array" ref="G2">(F2-VLOOKUP(A2&amp;"|"&amp;(SupportLists!$B$3-1),CHOOSE({1,2},ADs!$A$1:$A$10000&amp;"|"&amp;ADs!$E$1:$E$10000,ADs!$C$1:$C$10000),2,0))/F2</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="6" cm="1">
+      <c r="H2" s="6" t="e" cm="1">
         <f t="array" ref="H2">AVERAGE(IF(ADs!A:A=Overview!A2,ADs!$C$1:$C$10000))</f>
-        <v>26326313</v>
+        <v>#N/A</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" t="str">
@@ -1318,13 +1479,13 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" t="e">
         <f>VLOOKUP(A3,IDs!A:B,2,FALSE)</f>
-        <v>Artiemoose</v>
-      </c>
-      <c r="C3" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="6" t="e" cm="1">
         <f t="array" ref="C3">VLOOKUP(A3&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>35784395</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="9">
         <v>30</v>
@@ -1335,10 +1496,10 @@
       </c>
       <c r="H3" s="6" t="e" cm="1">
         <f t="array" ref="H3">AVERAGE(IF(ADs!A:A=Overview!A3,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K3" t="str">
         <f>IF(VLOOKUP(A3,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A3,TZs!A:C,3,FALSE))</f>
@@ -1366,10 +1527,10 @@
       </c>
       <c r="H4" s="6" t="e" cm="1">
         <f t="array" ref="H4">AVERAGE(IF(ADs!A:A=Overview!A4,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K4" t="str">
         <f>IF(VLOOKUP(A4,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A4,TZs!A:C,3,FALSE))</f>
@@ -1395,7 +1556,7 @@
       </c>
       <c r="H5" s="6" t="e" cm="1">
         <f t="array" ref="H5">AVERAGE(IF(ADs!A:A=Overview!A5,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" t="str">
@@ -1424,7 +1585,7 @@
       </c>
       <c r="H6" s="6" t="e" cm="1">
         <f t="array" ref="H6">AVERAGE(IF(ADs!A:A=Overview!A6,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" t="str">
@@ -1436,13 +1597,13 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" t="e">
         <f>VLOOKUP(A7,IDs!A:B,2,FALSE)</f>
-        <v>CastyBunbun</v>
-      </c>
-      <c r="C7" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="6" t="e" cm="1">
         <f t="array" ref="C7">VLOOKUP(A7&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>39178242</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="9">
         <v>30</v>
@@ -1453,10 +1614,10 @@
       </c>
       <c r="H7" s="6" t="e" cm="1">
         <f t="array" ref="H7">AVERAGE(IF(ADs!A:A=Overview!A7,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K7" t="str">
         <f>IF(VLOOKUP(A7,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A7,TZs!A:C,3,FALSE))</f>
@@ -1467,13 +1628,13 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" t="e">
         <f>VLOOKUP(A8,IDs!A:B,2,FALSE)</f>
-        <v>CastyDRabbit</v>
-      </c>
-      <c r="C8" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="6" t="e" cm="1">
         <f t="array" ref="C8">VLOOKUP(A8&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>38743267</v>
+        <v>#N/A</v>
       </c>
       <c r="E8" s="9">
         <v>30</v>
@@ -1484,10 +1645,10 @@
       </c>
       <c r="H8" s="6" t="e" cm="1">
         <f t="array" ref="H8">AVERAGE(IF(ADs!A:A=Overview!A8,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K8" t="str">
         <f>IF(VLOOKUP(A8,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A8,TZs!A:C,3,FALSE))</f>
@@ -1498,9 +1659,9 @@
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" t="e">
         <f>VLOOKUP(A9,IDs!A:B,2,FALSE)</f>
-        <v>Cheesecake</v>
+        <v>#N/A</v>
       </c>
       <c r="C9" s="6" t="e" cm="1">
         <f t="array" ref="C9">VLOOKUP(A9&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
@@ -1515,7 +1676,7 @@
       </c>
       <c r="H9" s="6" t="e" cm="1">
         <f t="array" ref="H9">AVERAGE(IF(ADs!A:A=Overview!A9,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" t="str">
@@ -1544,7 +1705,7 @@
       </c>
       <c r="H10" s="6" t="e" cm="1">
         <f t="array" ref="H10">AVERAGE(IF(ADs!A:A=Overview!A10,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" t="str">
@@ -1560,9 +1721,9 @@
         <f>VLOOKUP(A11,IDs!A:B,2,FALSE)</f>
         <v>CMLTO</v>
       </c>
-      <c r="C11" s="6" cm="1">
+      <c r="C11" s="6" t="e" cm="1">
         <f t="array" ref="C11">VLOOKUP(A11&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>58102981</v>
+        <v>#N/A</v>
       </c>
       <c r="E11" s="9">
         <v>30</v>
@@ -1573,10 +1734,10 @@
       </c>
       <c r="H11" s="6" t="e" cm="1">
         <f t="array" ref="H11">AVERAGE(IF(ADs!A:A=Overview!A11,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K11" t="str">
         <f>IF(VLOOKUP(A11,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A11,TZs!A:C,3,FALSE))</f>
@@ -1604,7 +1765,7 @@
       </c>
       <c r="H12" s="6" t="e" cm="1">
         <f t="array" ref="H12">AVERAGE(IF(ADs!A:A=Overview!A12,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" t="str">
@@ -1633,7 +1794,7 @@
       </c>
       <c r="H13" s="6" t="e" cm="1">
         <f t="array" ref="H13">AVERAGE(IF(ADs!A:A=Overview!A13,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" t="str">
@@ -1662,10 +1823,10 @@
       </c>
       <c r="H14" s="6" t="e" cm="1">
         <f t="array" ref="H14">AVERAGE(IF(ADs!A:A=Overview!A14,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K14" t="str">
         <f>IF(VLOOKUP(A14,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A14,TZs!A:C,3,FALSE))</f>
@@ -1691,7 +1852,7 @@
       </c>
       <c r="H15" s="6" t="e" cm="1">
         <f t="array" ref="H15">AVERAGE(IF(ADs!A:A=Overview!A15,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" t="str">
@@ -1703,13 +1864,13 @@
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" t="e">
         <f>VLOOKUP(A16,IDs!A:B,2,FALSE)</f>
-        <v>DiaboliLair</v>
-      </c>
-      <c r="C16" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="6" t="e" cm="1">
         <f t="array" ref="C16">VLOOKUP(A16&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>21681035</v>
+        <v>#N/A</v>
       </c>
       <c r="E16" s="9">
         <v>28</v>
@@ -1720,7 +1881,7 @@
       </c>
       <c r="H16" s="6" t="e" cm="1">
         <f t="array" ref="H16">AVERAGE(IF(ADs!A:A=Overview!A16,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" t="str">
@@ -1749,7 +1910,7 @@
       </c>
       <c r="H17" s="6" t="e" cm="1">
         <f t="array" ref="H17">AVERAGE(IF(ADs!A:A=Overview!A17,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" t="str">
@@ -1778,7 +1939,7 @@
       </c>
       <c r="H18" s="6" t="e" cm="1">
         <f t="array" ref="H18">AVERAGE(IF(ADs!A:A=Overview!A18,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" t="str">
@@ -1790,13 +1951,13 @@
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" t="e">
         <f>VLOOKUP(A19,IDs!A:B,2,FALSE)</f>
-        <v>dryfondue</v>
-      </c>
-      <c r="C19" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="6" t="e" cm="1">
         <f t="array" ref="C19">VLOOKUP(A19&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>34208790</v>
+        <v>#N/A</v>
       </c>
       <c r="E19" s="9">
         <v>30</v>
@@ -1807,7 +1968,7 @@
       </c>
       <c r="H19" s="6" t="e" cm="1">
         <f t="array" ref="H19">AVERAGE(IF(ADs!A:A=Overview!A19,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" t="str">
@@ -1819,13 +1980,13 @@
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" t="e">
         <f>VLOOKUP(A20,IDs!A:B,2,FALSE)</f>
-        <v>Dumpling</v>
-      </c>
-      <c r="C20" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="6" t="e" cm="1">
         <f t="array" ref="C20">VLOOKUP(A20&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>29172663</v>
+        <v>#N/A</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="6" t="e" cm="1">
@@ -1834,7 +1995,7 @@
       </c>
       <c r="H20" s="6" t="e" cm="1">
         <f t="array" ref="H20">AVERAGE(IF(ADs!A:A=Overview!A20,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" t="str">
@@ -1846,13 +2007,13 @@
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" t="e">
         <f>VLOOKUP(A21,IDs!A:B,2,FALSE)</f>
-        <v>e.player</v>
-      </c>
-      <c r="C21" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="6" t="e" cm="1">
         <f t="array" ref="C21">VLOOKUP(A21&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>31910473</v>
+        <v>#N/A</v>
       </c>
       <c r="E21" s="9">
         <v>29</v>
@@ -1863,7 +2024,7 @@
       </c>
       <c r="H21" s="6" t="e" cm="1">
         <f t="array" ref="H21">AVERAGE(IF(ADs!A:A=Overview!A21,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" t="str">
@@ -1890,7 +2051,7 @@
       </c>
       <c r="H22" s="6" t="e" cm="1">
         <f t="array" ref="H22">AVERAGE(IF(ADs!A:A=Overview!A22,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" t="str">
@@ -1906,9 +2067,9 @@
         <f>VLOOKUP(A23,IDs!A:B,2,FALSE)</f>
         <v>Evita.Q</v>
       </c>
-      <c r="C23" s="6" cm="1">
+      <c r="C23" s="6" t="e" cm="1">
         <f t="array" ref="C23">VLOOKUP(A23&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>37900031</v>
+        <v>#N/A</v>
       </c>
       <c r="E23" s="9">
         <v>30</v>
@@ -1919,7 +2080,7 @@
       </c>
       <c r="H23" s="6" t="e" cm="1">
         <f t="array" ref="H23">AVERAGE(IF(ADs!A:A=Overview!A23,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" t="str">
@@ -1946,7 +2107,7 @@
       </c>
       <c r="H24" s="6" t="e" cm="1">
         <f t="array" ref="H24">AVERAGE(IF(ADs!A:A=Overview!A24,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" t="str">
@@ -1962,9 +2123,9 @@
         <f>VLOOKUP(A25,IDs!A:B,2,FALSE)</f>
         <v>finanzamtt</v>
       </c>
-      <c r="C25" s="6" cm="1">
+      <c r="C25" s="6" t="e" cm="1">
         <f t="array" ref="C25">VLOOKUP(A25&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>46493731</v>
+        <v>#N/A</v>
       </c>
       <c r="E25" s="9">
         <v>30</v>
@@ -1975,10 +2136,10 @@
       </c>
       <c r="H25" s="6" t="e" cm="1">
         <f t="array" ref="H25">AVERAGE(IF(ADs!A:A=Overview!A25,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K25" t="str">
         <f>IF(VLOOKUP(A25,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A25,TZs!A:C,3,FALSE))</f>
@@ -2006,7 +2167,7 @@
       </c>
       <c r="H26" s="6" t="e" cm="1">
         <f t="array" ref="H26">AVERAGE(IF(ADs!A:A=Overview!A26,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" t="str">
@@ -2018,13 +2179,13 @@
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" t="e">
         <f>VLOOKUP(A27,IDs!A:B,2,FALSE)</f>
-        <v>Garadriel</v>
-      </c>
-      <c r="C27" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="6" t="e" cm="1">
         <f t="array" ref="C27">VLOOKUP(A27&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>28550286</v>
+        <v>#N/A</v>
       </c>
       <c r="E27" s="9">
         <v>28</v>
@@ -2035,7 +2196,7 @@
       </c>
       <c r="H27" s="6" t="e" cm="1">
         <f t="array" ref="H27">AVERAGE(IF(ADs!A:A=Overview!A27,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" t="str">
@@ -2062,7 +2223,7 @@
       </c>
       <c r="H28" s="6" t="e" cm="1">
         <f t="array" ref="H28">AVERAGE(IF(ADs!A:A=Overview!A28,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" t="str">
@@ -2089,7 +2250,7 @@
       </c>
       <c r="H29" s="6" t="e" cm="1">
         <f t="array" ref="H29">AVERAGE(IF(ADs!A:A=Overview!A29,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" t="str">
@@ -2101,13 +2262,13 @@
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" t="e">
         <f>VLOOKUP(A30,IDs!A:B,2,FALSE)</f>
-        <v>Greatheart</v>
-      </c>
-      <c r="C30" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="6" t="e" cm="1">
         <f t="array" ref="C30">VLOOKUP(A30&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>35541195</v>
+        <v>#N/A</v>
       </c>
       <c r="E30" s="9">
         <v>30</v>
@@ -2118,10 +2279,10 @@
       </c>
       <c r="H30" s="6" t="e" cm="1">
         <f t="array" ref="H30">AVERAGE(IF(ADs!A:A=Overview!A30,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K30" t="str">
         <f>IF(VLOOKUP(A30,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A30,TZs!A:C,3,FALSE))</f>
@@ -2149,7 +2310,7 @@
       </c>
       <c r="H31" s="6" t="e" cm="1">
         <f t="array" ref="H31">AVERAGE(IF(ADs!A:A=Overview!A31,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" t="str">
@@ -2165,9 +2326,9 @@
         <f>VLOOKUP(A32,IDs!A:B,2,FALSE)</f>
         <v>I am Groot</v>
       </c>
-      <c r="C32" s="6" cm="1">
+      <c r="C32" s="6" t="e" cm="1">
         <f t="array" ref="C32">VLOOKUP(A32&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>31821869</v>
+        <v>#N/A</v>
       </c>
       <c r="E32" s="9">
         <v>30</v>
@@ -2178,7 +2339,7 @@
       </c>
       <c r="H32" s="6" t="e" cm="1">
         <f t="array" ref="H32">AVERAGE(IF(ADs!A:A=Overview!A32,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" t="str">
@@ -2190,13 +2351,13 @@
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" t="e">
         <f>VLOOKUP(A33,IDs!A:B,2,FALSE)</f>
-        <v>izissuki</v>
-      </c>
-      <c r="C33" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" s="6" t="e" cm="1">
         <f t="array" ref="C33">VLOOKUP(A33&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>34739964</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" s="9">
         <v>29</v>
@@ -2207,7 +2368,7 @@
       </c>
       <c r="H33" s="6" t="e" cm="1">
         <f t="array" ref="H33">AVERAGE(IF(ADs!A:A=Overview!A33,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" t="str">
@@ -2236,10 +2397,10 @@
       </c>
       <c r="H34" s="6" t="e" cm="1">
         <f t="array" ref="H34">AVERAGE(IF(ADs!A:A=Overview!A34,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K34" t="str">
         <f>IF(VLOOKUP(A34,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A34,TZs!A:C,3,FALSE))</f>
@@ -2265,7 +2426,7 @@
       </c>
       <c r="H35" s="6" t="e" cm="1">
         <f t="array" ref="H35">AVERAGE(IF(ADs!A:A=Overview!A35,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" t="str">
@@ -2277,13 +2438,13 @@
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" t="e">
         <f>VLOOKUP(A36,IDs!A:B,2,FALSE)</f>
-        <v>Kevin1707</v>
-      </c>
-      <c r="C36" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C36" s="6" t="e" cm="1">
         <f t="array" ref="C36">VLOOKUP(A36&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>27612806</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="6" t="e" cm="1">
@@ -2292,7 +2453,7 @@
       </c>
       <c r="H36" s="6" t="e" cm="1">
         <f t="array" ref="H36">AVERAGE(IF(ADs!A:A=Overview!A36,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" t="str">
@@ -2304,13 +2465,13 @@
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" t="e">
         <f>VLOOKUP(A37,IDs!A:B,2,FALSE)</f>
-        <v>Khaleesi</v>
-      </c>
-      <c r="C37" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C37" s="6" t="e" cm="1">
         <f t="array" ref="C37">VLOOKUP(A37&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>30601782</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" s="9">
         <v>28</v>
@@ -2321,7 +2482,7 @@
       </c>
       <c r="H37" s="6" t="e" cm="1">
         <f t="array" ref="H37">AVERAGE(IF(ADs!A:A=Overview!A37,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" t="str">
@@ -2348,7 +2509,7 @@
       </c>
       <c r="H38" s="6" t="e" cm="1">
         <f t="array" ref="H38">AVERAGE(IF(ADs!A:A=Overview!A38,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" t="str">
@@ -2377,7 +2538,7 @@
       </c>
       <c r="H39" s="6" t="e" cm="1">
         <f t="array" ref="H39">AVERAGE(IF(ADs!A:A=Overview!A39,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" t="str">
@@ -2406,7 +2567,7 @@
       </c>
       <c r="H40" s="6" t="e" cm="1">
         <f t="array" ref="H40">AVERAGE(IF(ADs!A:A=Overview!A40,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" t="str">
@@ -2435,7 +2596,7 @@
       </c>
       <c r="H41" s="6" t="e" cm="1">
         <f t="array" ref="H41">AVERAGE(IF(ADs!A:A=Overview!A41,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" t="str">
@@ -2462,7 +2623,7 @@
       </c>
       <c r="H42" s="6" t="e" cm="1">
         <f t="array" ref="H42">AVERAGE(IF(ADs!A:A=Overview!A42,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" t="str">
@@ -2491,10 +2652,10 @@
       </c>
       <c r="H43" s="6" t="e" cm="1">
         <f t="array" ref="H43">AVERAGE(IF(ADs!A:A=Overview!A43,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K43" t="str">
         <f>IF(VLOOKUP(A43,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A43,TZs!A:C,3,FALSE))</f>
@@ -2522,7 +2683,7 @@
       </c>
       <c r="H44" s="6" t="e" cm="1">
         <f t="array" ref="H44">AVERAGE(IF(ADs!A:A=Overview!A44,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" t="str">
@@ -2551,10 +2712,10 @@
       </c>
       <c r="H45" s="6" t="e" cm="1">
         <f t="array" ref="H45">AVERAGE(IF(ADs!A:A=Overview!A45,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K45" t="str">
         <f>IF(VLOOKUP(A45,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A45,TZs!A:C,3,FALSE))</f>
@@ -2565,13 +2726,13 @@
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" t="e">
         <f>VLOOKUP(A46,IDs!A:B,2,FALSE)</f>
-        <v>Loki</v>
-      </c>
-      <c r="C46" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" s="6" t="e" cm="1">
         <f t="array" ref="C46">VLOOKUP(A46&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>32190501</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="6" t="e" cm="1">
@@ -2580,7 +2741,7 @@
       </c>
       <c r="H46" s="6" t="e" cm="1">
         <f t="array" ref="H46">AVERAGE(IF(ADs!A:A=Overview!A46,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" t="str">
@@ -2607,7 +2768,7 @@
       </c>
       <c r="H47" s="6" t="e" cm="1">
         <f t="array" ref="H47">AVERAGE(IF(ADs!A:A=Overview!A47,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" t="str">
@@ -2636,7 +2797,7 @@
       </c>
       <c r="H48" s="6" t="e" cm="1">
         <f t="array" ref="H48">AVERAGE(IF(ADs!A:A=Overview!A48,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" t="str">
@@ -2663,7 +2824,7 @@
       </c>
       <c r="H49" s="6" t="e" cm="1">
         <f t="array" ref="H49">AVERAGE(IF(ADs!A:A=Overview!A49,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" t="str">
@@ -2690,7 +2851,7 @@
       </c>
       <c r="H50" s="6" t="e" cm="1">
         <f t="array" ref="H50">AVERAGE(IF(ADs!A:A=Overview!A50,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" t="str">
@@ -2719,7 +2880,7 @@
       </c>
       <c r="H51" s="6" t="e" cm="1">
         <f t="array" ref="H51">AVERAGE(IF(ADs!A:A=Overview!A51,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" t="str">
@@ -2735,9 +2896,9 @@
         <f>VLOOKUP(A52,IDs!A:B,2,FALSE)</f>
         <v>MR.Grinch</v>
       </c>
-      <c r="C52" s="6" cm="1">
+      <c r="C52" s="6" t="e" cm="1">
         <f t="array" ref="C52">VLOOKUP(A52&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>43918837</v>
+        <v>#N/A</v>
       </c>
       <c r="E52" s="9">
         <v>30</v>
@@ -2748,10 +2909,10 @@
       </c>
       <c r="H52" s="6" t="e" cm="1">
         <f t="array" ref="H52">AVERAGE(IF(ADs!A:A=Overview!A52,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K52" t="str">
         <f>IF(VLOOKUP(A52,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A52,TZs!A:C,3,FALSE))</f>
@@ -2764,11 +2925,11 @@
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(A53,IDs!A:B,2,FALSE)</f>
-        <v>Mr.Skieyagi69</v>
+        <v>Kevo1707</v>
       </c>
       <c r="C53" s="6" cm="1">
         <f t="array" ref="C53">VLOOKUP(A53&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>42374035</v>
+        <v>27612806</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="6" t="e" cm="1">
@@ -2777,7 +2938,7 @@
       </c>
       <c r="H53" s="6" t="e" cm="1">
         <f t="array" ref="H53">AVERAGE(IF(ADs!A:A=Overview!A53,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" t="str">
@@ -2789,13 +2950,13 @@
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" t="e">
         <f>VLOOKUP(A54,IDs!A:B,2,FALSE)</f>
-        <v>MΛDMONK</v>
-      </c>
-      <c r="C54" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C54" s="6" t="e" cm="1">
         <f t="array" ref="C54">VLOOKUP(A54&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>34356632</v>
+        <v>#N/A</v>
       </c>
       <c r="E54" s="9">
         <v>30</v>
@@ -2806,7 +2967,7 @@
       </c>
       <c r="H54" s="6" t="e" cm="1">
         <f t="array" ref="H54">AVERAGE(IF(ADs!A:A=Overview!A54,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" t="str">
@@ -2822,9 +2983,9 @@
         <f>VLOOKUP(A55,IDs!A:B,2,FALSE)</f>
         <v>Niimphy</v>
       </c>
-      <c r="C55" s="6" cm="1">
+      <c r="C55" s="6" t="e" cm="1">
         <f t="array" ref="C55">VLOOKUP(A55&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>30227099</v>
+        <v>#N/A</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="6" t="e" cm="1">
@@ -2833,7 +2994,7 @@
       </c>
       <c r="H55" s="6" t="e" cm="1">
         <f t="array" ref="H55">AVERAGE(IF(ADs!A:A=Overview!A55,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" t="str">
@@ -2862,7 +3023,7 @@
       </c>
       <c r="H56" s="6" t="e" cm="1">
         <f t="array" ref="H56">AVERAGE(IF(ADs!A:A=Overview!A56,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" t="str">
@@ -2889,7 +3050,7 @@
       </c>
       <c r="H57" s="6" t="e" cm="1">
         <f t="array" ref="H57">AVERAGE(IF(ADs!A:A=Overview!A57,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" t="str">
@@ -2905,9 +3066,9 @@
         <f>VLOOKUP(A58,IDs!A:B,2,FALSE)</f>
         <v>OldManLogan</v>
       </c>
-      <c r="C58" s="6" cm="1">
+      <c r="C58" s="6" t="e" cm="1">
         <f t="array" ref="C58">VLOOKUP(A58&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>33366095</v>
+        <v>#N/A</v>
       </c>
       <c r="E58" s="9">
         <v>29</v>
@@ -2918,7 +3079,7 @@
       </c>
       <c r="H58" s="6" t="e" cm="1">
         <f t="array" ref="H58">AVERAGE(IF(ADs!A:A=Overview!A58,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" t="str">
@@ -2930,13 +3091,13 @@
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" t="e">
         <f>VLOOKUP(A59,IDs!A:B,2,FALSE)</f>
-        <v>Oly-Prime</v>
-      </c>
-      <c r="C59" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C59" s="6" t="e" cm="1">
         <f t="array" ref="C59">VLOOKUP(A59&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>32602162</v>
+        <v>#N/A</v>
       </c>
       <c r="E59" s="9">
         <v>29</v>
@@ -2947,7 +3108,7 @@
       </c>
       <c r="H59" s="6" t="e" cm="1">
         <f t="array" ref="H59">AVERAGE(IF(ADs!A:A=Overview!A59,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" t="str">
@@ -2976,7 +3137,7 @@
       </c>
       <c r="H60" s="6" t="e" cm="1">
         <f t="array" ref="H60">AVERAGE(IF(ADs!A:A=Overview!A60,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" t="str">
@@ -2992,9 +3153,9 @@
         <f>VLOOKUP(A61,IDs!A:B,2,FALSE)</f>
         <v>OptimusOssi</v>
       </c>
-      <c r="C61" s="6" cm="1">
+      <c r="C61" s="6" t="e" cm="1">
         <f t="array" ref="C61">VLOOKUP(A61&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>32355409</v>
+        <v>#N/A</v>
       </c>
       <c r="E61" s="9">
         <v>29</v>
@@ -3005,7 +3166,7 @@
       </c>
       <c r="H61" s="6" t="e" cm="1">
         <f t="array" ref="H61">AVERAGE(IF(ADs!A:A=Overview!A61,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" t="str">
@@ -3017,13 +3178,13 @@
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62" t="e">
         <f>VLOOKUP(A62,IDs!A:B,2,FALSE)</f>
-        <v>Peachypalace</v>
-      </c>
-      <c r="C62" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C62" s="6" t="e" cm="1">
         <f t="array" ref="C62">VLOOKUP(A62&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>31546322</v>
+        <v>#N/A</v>
       </c>
       <c r="E62" s="9">
         <v>29</v>
@@ -3034,7 +3195,7 @@
       </c>
       <c r="H62" s="6" t="e" cm="1">
         <f t="array" ref="H62">AVERAGE(IF(ADs!A:A=Overview!A62,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" t="str">
@@ -3050,9 +3211,9 @@
         <f>VLOOKUP(A63,IDs!A:B,2,FALSE)</f>
         <v>POLAR-BEAR</v>
       </c>
-      <c r="C63" s="6" cm="1">
+      <c r="C63" s="6" t="e" cm="1">
         <f t="array" ref="C63">VLOOKUP(A63&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>57756749</v>
+        <v>#N/A</v>
       </c>
       <c r="E63" s="9">
         <v>30</v>
@@ -3063,10 +3224,10 @@
       </c>
       <c r="H63" s="6" t="e" cm="1">
         <f t="array" ref="H63">AVERAGE(IF(ADs!A:A=Overview!A63,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K63" t="str">
         <f>IF(VLOOKUP(A63,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A63,TZs!A:C,3,FALSE))</f>
@@ -3077,13 +3238,13 @@
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64" t="e">
         <f>VLOOKUP(A64,IDs!A:B,2,FALSE)</f>
-        <v>Protos</v>
-      </c>
-      <c r="C64" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C64" s="6" t="e" cm="1">
         <f t="array" ref="C64">VLOOKUP(A64&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>32991495</v>
+        <v>#N/A</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="6" t="e" cm="1">
@@ -3092,7 +3253,7 @@
       </c>
       <c r="H64" s="6" t="e" cm="1">
         <f t="array" ref="H64">AVERAGE(IF(ADs!A:A=Overview!A64,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" t="str">
@@ -3119,7 +3280,7 @@
       </c>
       <c r="H65" s="6" t="e" cm="1">
         <f t="array" ref="H65">AVERAGE(IF(ADs!A:A=Overview!A65,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" t="str">
@@ -3146,7 +3307,7 @@
       </c>
       <c r="H66" s="6" t="e" cm="1">
         <f t="array" ref="H66">AVERAGE(IF(ADs!A:A=Overview!A66,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" t="str">
@@ -3162,9 +3323,9 @@
         <f>VLOOKUP(A67,IDs!A:B,2,FALSE)</f>
         <v>RockerFoo</v>
       </c>
-      <c r="C67" s="6" cm="1">
+      <c r="C67" s="6" t="e" cm="1">
         <f t="array" ref="C67">VLOOKUP(A67&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>39128873</v>
+        <v>#N/A</v>
       </c>
       <c r="E67" s="9">
         <v>28</v>
@@ -3175,7 +3336,7 @@
       </c>
       <c r="H67" s="6" t="e" cm="1">
         <f t="array" ref="H67">AVERAGE(IF(ADs!A:A=Overview!A67,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" t="str">
@@ -3187,13 +3348,13 @@
       <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" t="e">
         <f>VLOOKUP(A68,IDs!A:B,2,FALSE)</f>
-        <v>Rohese</v>
-      </c>
-      <c r="C68" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C68" s="6" t="e" cm="1">
         <f t="array" ref="C68">VLOOKUP(A68&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>37725758</v>
+        <v>#N/A</v>
       </c>
       <c r="E68" s="9">
         <v>30</v>
@@ -3204,10 +3365,10 @@
       </c>
       <c r="H68" s="6" t="e" cm="1">
         <f t="array" ref="H68">AVERAGE(IF(ADs!A:A=Overview!A68,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K68" t="str">
         <f>IF(VLOOKUP(A68,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A68,TZs!A:C,3,FALSE))</f>
@@ -3235,7 +3396,7 @@
       </c>
       <c r="H69" s="6" t="e" cm="1">
         <f t="array" ref="H69">AVERAGE(IF(ADs!A:A=Overview!A69,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" t="str">
@@ -3262,7 +3423,7 @@
       </c>
       <c r="H70" s="6" t="e" cm="1">
         <f t="array" ref="H70">AVERAGE(IF(ADs!A:A=Overview!A70,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" t="str">
@@ -3291,7 +3452,7 @@
       </c>
       <c r="H71" s="6" t="e" cm="1">
         <f t="array" ref="H71">AVERAGE(IF(ADs!A:A=Overview!A71,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" t="str">
@@ -3307,9 +3468,9 @@
         <f>VLOOKUP(A72,IDs!A:B,2,FALSE)</f>
         <v>Schockaletta</v>
       </c>
-      <c r="C72" s="6" cm="1">
+      <c r="C72" s="6" t="e" cm="1">
         <f t="array" ref="C72">VLOOKUP(A72&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>34426364</v>
+        <v>#N/A</v>
       </c>
       <c r="E72" s="9">
         <v>29</v>
@@ -3320,7 +3481,7 @@
       </c>
       <c r="H72" s="6" t="e" cm="1">
         <f t="array" ref="H72">AVERAGE(IF(ADs!A:A=Overview!A72,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" t="str">
@@ -3336,9 +3497,9 @@
         <f>VLOOKUP(A73,IDs!A:B,2,FALSE)</f>
         <v>Señor.1.</v>
       </c>
-      <c r="C73" s="6" cm="1">
+      <c r="C73" s="6" t="e" cm="1">
         <f t="array" ref="C73">VLOOKUP(A73&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>36793250</v>
+        <v>#N/A</v>
       </c>
       <c r="E73" s="9">
         <v>30</v>
@@ -3349,7 +3510,7 @@
       </c>
       <c r="H73" s="6" t="e" cm="1">
         <f t="array" ref="H73">AVERAGE(IF(ADs!A:A=Overview!A73,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" t="str">
@@ -3378,10 +3539,10 @@
       </c>
       <c r="H74" s="6" t="e" cm="1">
         <f t="array" ref="H74">AVERAGE(IF(ADs!A:A=Overview!A74,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K74" t="str">
         <f>IF(VLOOKUP(A74,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A74,TZs!A:C,3,FALSE))</f>
@@ -3392,13 +3553,13 @@
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" t="e">
         <f>VLOOKUP(A75,IDs!A:B,2,FALSE)</f>
-        <v>SilentSlayer</v>
-      </c>
-      <c r="C75" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C75" s="6" t="e" cm="1">
         <f t="array" ref="C75">VLOOKUP(A75&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>37934966</v>
+        <v>#N/A</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="6" t="e" cm="1">
@@ -3407,7 +3568,7 @@
       </c>
       <c r="H75" s="6" t="e" cm="1">
         <f t="array" ref="H75">AVERAGE(IF(ADs!A:A=Overview!A75,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" t="str">
@@ -3436,10 +3597,10 @@
       </c>
       <c r="H76" s="6" t="e" cm="1">
         <f t="array" ref="H76">AVERAGE(IF(ADs!A:A=Overview!A76,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K76" t="str">
         <f>IF(VLOOKUP(A76,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A76,TZs!A:C,3,FALSE))</f>
@@ -3454,9 +3615,9 @@
         <f>VLOOKUP(A77,IDs!A:B,2,FALSE)</f>
         <v>Tassin</v>
       </c>
-      <c r="C77" s="6" cm="1">
+      <c r="C77" s="6" t="e" cm="1">
         <f t="array" ref="C77">VLOOKUP(A77&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>48055015</v>
+        <v>#N/A</v>
       </c>
       <c r="E77" s="9">
         <v>30</v>
@@ -3467,10 +3628,10 @@
       </c>
       <c r="H77" s="6" t="e" cm="1">
         <f t="array" ref="H77">AVERAGE(IF(ADs!A:A=Overview!A77,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K77" t="str">
         <f>IF(VLOOKUP(A77,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A77,TZs!A:C,3,FALSE))</f>
@@ -3485,9 +3646,9 @@
         <f>VLOOKUP(A78,IDs!A:B,2,FALSE)</f>
         <v>TearsOfCthulu</v>
       </c>
-      <c r="C78" s="6" cm="1">
+      <c r="C78" s="6" t="e" cm="1">
         <f t="array" ref="C78">VLOOKUP(A78&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>43501478</v>
+        <v>#N/A</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="6" t="e" cm="1">
@@ -3496,7 +3657,7 @@
       </c>
       <c r="H78" s="6" t="e" cm="1">
         <f t="array" ref="H78">AVERAGE(IF(ADs!A:A=Overview!A78,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" t="str">
@@ -3523,7 +3684,7 @@
       </c>
       <c r="H79" s="6" t="e" cm="1">
         <f t="array" ref="H79">AVERAGE(IF(ADs!A:A=Overview!A79,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" t="str">
@@ -3535,13 +3696,13 @@
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" t="e">
         <f>VLOOKUP(A80,IDs!A:B,2,FALSE)</f>
-        <v>Thyri</v>
-      </c>
-      <c r="C80" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C80" s="6" t="e" cm="1">
         <f t="array" ref="C80">VLOOKUP(A80&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>39899996</v>
+        <v>#N/A</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="6" t="e" cm="1">
@@ -3550,7 +3711,7 @@
       </c>
       <c r="H80" s="6" t="e" cm="1">
         <f t="array" ref="H80">AVERAGE(IF(ADs!A:A=Overview!A80,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" t="str">
@@ -3562,13 +3723,13 @@
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" t="e">
         <f>VLOOKUP(A81,IDs!A:B,2,FALSE)</f>
-        <v>PattiCakes</v>
-      </c>
-      <c r="C81" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C81" s="6" t="e" cm="1">
         <f t="array" ref="C81">VLOOKUP(A81&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>41927092</v>
+        <v>#N/A</v>
       </c>
       <c r="E81" s="9">
         <v>30</v>
@@ -3579,7 +3740,7 @@
       </c>
       <c r="H81" s="6" t="e" cm="1">
         <f t="array" ref="H81">AVERAGE(IF(ADs!A:A=Overview!A81,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" t="str">
@@ -3606,7 +3767,7 @@
       </c>
       <c r="H82" s="6" t="e" cm="1">
         <f t="array" ref="H82">AVERAGE(IF(ADs!A:A=Overview!A82,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" t="str">
@@ -3618,13 +3779,13 @@
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83" t="e">
         <f>VLOOKUP(A83,IDs!A:B,2,FALSE)</f>
-        <v>Tuxe</v>
-      </c>
-      <c r="C83" s="6" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C83" s="6" t="e" cm="1">
         <f t="array" ref="C83">VLOOKUP(A83&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>26547055</v>
+        <v>#N/A</v>
       </c>
       <c r="E83" s="9">
         <v>28</v>
@@ -3635,7 +3796,7 @@
       </c>
       <c r="H83" s="6" t="e" cm="1">
         <f t="array" ref="H83">AVERAGE(IF(ADs!A:A=Overview!A83,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" t="str">
@@ -3651,9 +3812,9 @@
         <f>VLOOKUP(A84,IDs!A:B,2,FALSE)</f>
         <v>Valessa</v>
       </c>
-      <c r="C84" s="6" cm="1">
+      <c r="C84" s="6" t="e" cm="1">
         <f t="array" ref="C84">VLOOKUP(A84&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>49420995</v>
+        <v>#N/A</v>
       </c>
       <c r="E84" s="9">
         <v>30</v>
@@ -3664,10 +3825,10 @@
       </c>
       <c r="H84" s="6" t="e" cm="1">
         <f t="array" ref="H84">AVERAGE(IF(ADs!A:A=Overview!A84,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K84" t="str">
         <f>IF(VLOOKUP(A84,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A84,TZs!A:C,3,FALSE))</f>
@@ -3693,7 +3854,7 @@
       </c>
       <c r="H85" s="6" t="e" cm="1">
         <f t="array" ref="H85">AVERAGE(IF(ADs!A:A=Overview!A85,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" t="str">
@@ -3722,10 +3883,10 @@
       </c>
       <c r="H86" s="6" t="e" cm="1">
         <f t="array" ref="H86">AVERAGE(IF(ADs!A:A=Overview!A86,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K86" t="str">
         <f>IF(VLOOKUP(A86,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A86,TZs!A:C,3,FALSE))</f>
@@ -3753,10 +3914,10 @@
       </c>
       <c r="H87" s="6" t="e" cm="1">
         <f t="array" ref="H87">AVERAGE(IF(ADs!A:A=Overview!A87,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K87" t="str">
         <f>IF(VLOOKUP(A87,TZs!A:C,3,FALSE)=0,"",VLOOKUP(A87,TZs!A:C,3,FALSE))</f>
@@ -3771,9 +3932,9 @@
         <f>VLOOKUP(A88,IDs!A:B,2,FALSE)</f>
         <v>Xorron</v>
       </c>
-      <c r="C88" s="6" cm="1">
+      <c r="C88" s="6" t="e" cm="1">
         <f t="array" ref="C88">VLOOKUP(A88&amp;"|"&amp;SupportLists!$B$3,CHOOSE({1,2},CPs!$A$1:$A$10000&amp;"|"&amp;CPs!$E$1:$E$10000,CPs!$C$1:$C$10000),2,0)</f>
-        <v>37577112</v>
+        <v>#N/A</v>
       </c>
       <c r="E88" s="9">
         <v>29</v>
@@ -3784,7 +3945,7 @@
       </c>
       <c r="H88" s="6" t="e" cm="1">
         <f t="array" ref="H88">AVERAGE(IF(ADs!A:A=Overview!A88,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" t="str">
@@ -3811,7 +3972,7 @@
       </c>
       <c r="H89" s="6" t="e" cm="1">
         <f t="array" ref="H89">AVERAGE(IF(ADs!A:A=Overview!A89,ADs!$C$1:$C$10000))</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" t="str">
@@ -3828,11 +3989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FD2E10-77AE-E448-A3EA-C81DB8B23113}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3846,1357 +4010,1356 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>A2</f>
+        <v>7RS59AN6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3</f>
+        <v>7FB3MA8U</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>74BQJATP</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PDUSYAWM</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P8Z7YA8P</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P6RN5A57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
+      <c r="A8" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PMDSGAW9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7QUJCA33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHHUMAL7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PECZTA63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PV8X5ACE</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7QCM6A6Y</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PEP2NAB7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
+      <c r="A15" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7WP99A96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7RB4FADN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PZUKHAD6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P8SGRAHG</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PVFMZAJ8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PVJR3AJK</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PSQRRA4Y</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P2V3FAQF</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7Q9YZAM6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
+      <c r="A24" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PZC5LAML</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHVX6AUM</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7NSPZA8N</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PVPR5AFW</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7LS4WAXK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PEKV3AWQ</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7GZ7JAJZ</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7TJ5TATN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>74W89ADT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P83FTAG7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PZRCCA4B</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7GMJYA4L</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHXRCAV5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PZWVSA2C</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P8W89A5U</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P86C3A87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PVYB6A5F</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PEZ5XAG4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHHUYADX</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7NTYXAFY</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PEUFDAKU</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>74ZRNAZ7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PDEG2AWL</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P82YGAEM</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PSBRKA2T</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PEJDSAEZ</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PVPMSAF2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7QR4EALV</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>76W92AHN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7LN63AKQ</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PER2BALF</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>74UMKABQ</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>767MXA8T</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P88Z6A87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>P8EDGAPB</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PXSSYAMS</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PS474ALJ</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PN4Z9AYC</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7BC38A54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7RE7SASR</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PS3CMAKB</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PVHCVAE8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHRCLAEP</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f t="shared" ref="C67:C108" si="1">A67</f>
+        <v>P2XTYAM2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHEK5AVE</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7Q33DAL6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>P8V8TA9X</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PEQWRA3J</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>76W5ZASP</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PTUC4AHG</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7BFDTAN6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHNQCASN</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7R5LSA8P</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7LCK7AKH</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PV83UAHH</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7BLGLA7T</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>P8H9EAKP</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>P8D4NAVR</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>76F35A38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PETGJANK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7QYLJA25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PV648AQ5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PVNF2APD</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7B2ZUAVK</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PVFQLAYS</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PVGK4A97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHU33AJN</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>P27RMAKR</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHEK5AVE</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHHUYADX</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7GZ7JAJZ</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PZC5LAML</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>74W89ADT</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B97" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>57</v>
+      <c r="C97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7GMJYA4L</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>87</v>
+      <c r="A98" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>87</v>
+        <v>289</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>76F35A38</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>90</v>
+      <c r="A99" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>90</v>
+        <v>290</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHXRCAV5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>83</v>
+        <v>292</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7673XADV</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>74</v>
+      <c r="A101" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>74</v>
+        <v>180</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PVGK4A97</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>93</v>
+      <c r="A102" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="C102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>74BQJATP</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>78</v>
+      <c r="A103" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7LCK7AKH</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>77</v>
+      <c r="A104" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>77</v>
+        <v>295</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>767MXA8T</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>59</v>
+      <c r="A105" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>59</v>
+        <v>296</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7NSPZA8N</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>63</v>
+      <c r="A106" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>63</v>
+        <v>297</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7GMJYA4L</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>51</v>
+      <c r="A107" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>51</v>
+        <v>298</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHXRCAV5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>51</v>
+      <c r="A108" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>51</v>
+        <v>299</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7RB4FADN</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>203</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" t="s">
-        <v>204</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B112" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" t="s">
-        <v>214</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" t="s">
-        <v>212</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" t="s">
-        <v>208</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B117" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" t="s">
-        <v>211</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" t="s">
-        <v>217</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B120" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B121" t="s">
-        <v>222</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B122" t="s">
-        <v>225</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" t="s">
-        <v>226</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B124" t="s">
-        <v>227</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="C124" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5232,16 +5395,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
+      <c r="A2" t="e">
         <f>VLOOKUP(B2,IDs!B:C,2,FALSE)</f>
-        <v>PV648AQ5</v>
+        <v>#N/A</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C2">
         <v>49420995</v>
@@ -5260,7 +5423,7 @@
         <v>PDUSYAWM</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>67285081</v>
@@ -5279,7 +5442,7 @@
         <v>PVFQLAYS</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C4">
         <v>52954207</v>
@@ -5298,7 +5461,7 @@
         <v>PHHUYADX</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C5">
         <v>52677320</v>
@@ -5317,7 +5480,7 @@
         <v>P88Z6A87</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>42460180</v>
@@ -5331,12 +5494,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
+      <c r="A7" t="e">
         <f>VLOOKUP(B7,IDs!B:C,2,FALSE)</f>
-        <v>PHHUMAL7</v>
+        <v>#N/A</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C7">
         <v>58102981</v>
@@ -5350,12 +5513,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
+      <c r="A8" t="e">
         <f>VLOOKUP(B8,IDs!B:C,2,FALSE)</f>
-        <v>P6QFTA94</v>
+        <v>#N/A</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C8">
         <v>41927092</v>
@@ -5369,12 +5532,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
+      <c r="A9" t="e">
         <f>VLOOKUP(B9,IDs!B:C,2,FALSE)</f>
-        <v>P8H9EAKP</v>
+        <v>#N/A</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>48055015</v>
@@ -5393,7 +5556,7 @@
         <v>P8SGRAHG</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <v>40569294</v>
@@ -5412,7 +5575,7 @@
         <v>PVGK4A97</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <v>40092683</v>
@@ -5426,12 +5589,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
+      <c r="A12" t="e">
         <f>VLOOKUP(B12,IDs!B:C,2,FALSE)</f>
-        <v>PS3CMAKB</v>
+        <v>#N/A</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C12">
         <v>57756749</v>
@@ -5450,7 +5613,7 @@
         <v>PSBRKA2T</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C13">
         <v>36125433</v>
@@ -5464,12 +5627,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
+      <c r="A14" t="e">
         <f>VLOOKUP(B14,IDs!B:C,2,FALSE)</f>
-        <v>7TJ5TATN</v>
+        <v>#N/A</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C14">
         <v>31821869</v>
@@ -5488,7 +5651,7 @@
         <v>PV83UAHH</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C15">
         <v>62122021</v>
@@ -5507,7 +5670,7 @@
         <v>P83FTAG7</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C16">
         <v>45805548</v>
@@ -5526,7 +5689,7 @@
         <v>PVHCVAE8</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C17">
         <v>35748007</v>
@@ -5545,7 +5708,7 @@
         <v>7QCM6A6Y</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18">
         <v>69063270</v>
@@ -5564,7 +5727,7 @@
         <v>PHNQCASN</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C19">
         <v>49257465</v>
@@ -5583,7 +5746,7 @@
         <v>PEUFDAKU</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>46563240</v>
@@ -5602,7 +5765,7 @@
         <v>P8V8TA9X</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C21">
         <v>45160570</v>
@@ -5621,7 +5784,7 @@
         <v>PETGJANK</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C22">
         <v>42240880</v>
@@ -5640,7 +5803,7 @@
         <v>PEZ5XAG4</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23">
         <v>39760274</v>
@@ -5654,12 +5817,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
+      <c r="A24" t="e">
         <f>VLOOKUP(B24,IDs!B:C,2,FALSE)</f>
-        <v>P2XTYAM2</v>
+        <v>#N/A</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C24">
         <v>39128873</v>
@@ -5673,12 +5836,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
+      <c r="A25" t="e">
         <f>VLOOKUP(B25,IDs!B:C,2,FALSE)</f>
-        <v>PVJR3AJK</v>
+        <v>#N/A</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C25">
         <v>37900031</v>
@@ -5692,12 +5855,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
+      <c r="A26" t="e">
         <f>VLOOKUP(B26,IDs!B:C,2,FALSE)</f>
-        <v>P2V3FAQF</v>
+        <v>#N/A</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C26">
         <v>46493731</v>
@@ -5711,12 +5874,12 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
+      <c r="A27" t="e">
         <f>VLOOKUP(B27,IDs!B:C,2,FALSE)</f>
-        <v>7QR4EALV</v>
+        <v>#N/A</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C27">
         <v>43918837</v>
@@ -5735,7 +5898,7 @@
         <v>P86C3A87</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <v>41747970</v>
@@ -5754,7 +5917,7 @@
         <v>PECZTA63</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29">
         <v>39717080</v>
@@ -5773,7 +5936,7 @@
         <v>P82YGAEM</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C30">
         <v>38209145</v>
@@ -5792,7 +5955,7 @@
         <v>PHRCLAEP</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>37682407</v>
@@ -5811,7 +5974,7 @@
         <v>PEP2NAB7</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32">
         <v>37360154</v>
@@ -5830,7 +5993,7 @@
         <v>PEJDSAEZ</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C33">
         <v>36763314</v>
@@ -5849,7 +6012,7 @@
         <v>PZUKHAD6</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34">
         <v>33838683</v>
@@ -5868,7 +6031,7 @@
         <v>PV8X5ACE</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <v>34483454</v>
@@ -5887,7 +6050,7 @@
         <v>P27RMAKR</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C36">
         <v>33274154</v>
@@ -5906,7 +6069,7 @@
         <v>7QYLJA25</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C37">
         <v>32920151</v>
@@ -5925,7 +6088,7 @@
         <v>PVNF2APD</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C38">
         <v>29379766</v>
@@ -5944,7 +6107,7 @@
         <v>PZWVSA2C</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C39">
         <v>33037868</v>
@@ -5963,7 +6126,7 @@
         <v>PVPR5AFW</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C40">
         <v>31489208</v>
@@ -5996,12 +6159,12 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
+      <c r="A42" t="e">
         <f>VLOOKUP(B42,IDs!B:C,2,FALSE)</f>
-        <v>PN4Z9AYC</v>
+        <v>#N/A</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C42">
         <v>32355409</v>
@@ -6015,12 +6178,12 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
+      <c r="A43" t="e">
         <f>VLOOKUP(B43,IDs!B:C,2,FALSE)</f>
-        <v>P8D4NAVR</v>
+        <v>#N/A</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C43">
         <v>43501478</v>
@@ -6058,7 +6221,7 @@
         <v>PHEK5AVE</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C45">
         <v>39642128</v>
@@ -6072,9 +6235,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
+      <c r="A46" t="e">
         <f>VLOOKUP(B46,IDs!B:C,2,FALSE)</f>
-        <v>PL53FAQJ</v>
+        <v>#N/A</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
@@ -6091,12 +6254,12 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="str">
+      <c r="A47" t="e">
         <f>VLOOKUP(B47,IDs!B:C,2,FALSE)</f>
-        <v>P69PLA35</v>
+        <v>#N/A</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C47">
         <v>37934966</v>
@@ -6110,12 +6273,12 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
+      <c r="A48" t="e">
         <f>VLOOKUP(B48,IDs!B:C,2,FALSE)</f>
-        <v>PER2BALF</v>
+        <v>#N/A</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C48">
         <v>30227099</v>
@@ -6129,12 +6292,12 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
+      <c r="A49" t="e">
         <f>VLOOKUP(B49,IDs!B:C,2,FALSE)</f>
-        <v>7GMJYA4L</v>
+        <v>#N/A</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C49">
         <v>42374035</v>
@@ -6148,12 +6311,12 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
+      <c r="A50" t="e">
         <f>VLOOKUP(B50,IDs!B:C,2,FALSE)</f>
-        <v>PUWS6AQL</v>
+        <v>#N/A</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C50">
         <v>39899996</v>
@@ -6172,7 +6335,7 @@
         <v>PEKV3AWQ</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51">
         <v>39482845</v>
@@ -6186,9 +6349,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="str">
+      <c r="A52" t="e">
         <f>VLOOKUP(B52,IDs!B:C,2,FALSE)</f>
-        <v>PLEWHAXP</v>
+        <v>#N/A</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
@@ -6205,12 +6368,12 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="str">
+      <c r="A53" t="e">
         <f>VLOOKUP(B53,IDs!B:C,2,FALSE)</f>
-        <v>P4RB2A4W</v>
+        <v>#N/A</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C53">
         <v>37725758</v>
@@ -6224,12 +6387,12 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="str">
+      <c r="A54" t="e">
         <f>VLOOKUP(B54,IDs!B:C,2,FALSE)</f>
-        <v>PHU33AJN</v>
+        <v>#N/A</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C54">
         <v>37577112</v>
@@ -6248,7 +6411,7 @@
         <v>PHVX6AUM</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C55">
         <v>35965925</v>
@@ -6267,7 +6430,7 @@
         <v>PDEG2AWL</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C56">
         <v>35608623</v>
@@ -6286,7 +6449,7 @@
         <v>7Q33DAL6</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C57">
         <v>35410795</v>
@@ -6305,7 +6468,7 @@
         <v>PVFMZAJ8</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C58">
         <v>35306066</v>
@@ -6319,12 +6482,12 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="str">
+      <c r="A59" t="e">
         <f>VLOOKUP(B59,IDs!B:C,2,FALSE)</f>
-        <v>PT6KZA7X</v>
+        <v>#N/A</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>34739964</v>
@@ -6338,12 +6501,12 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="str">
+      <c r="A60" t="e">
         <f>VLOOKUP(B60,IDs!B:C,2,FALSE)</f>
-        <v>PTUC4AHG</v>
+        <v>#N/A</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C60">
         <v>36793250</v>
@@ -6357,9 +6520,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
+      <c r="A61" t="e">
         <f>VLOOKUP(B61,IDs!B:C,2,FALSE)</f>
-        <v>PTWDNALK</v>
+        <v>#N/A</v>
       </c>
       <c r="B61" t="s">
         <v>96</v>
@@ -6376,12 +6539,12 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
+      <c r="A62" t="e">
         <f>VLOOKUP(B62,IDs!B:C,2,FALSE)</f>
-        <v>PLET7ASL</v>
+        <v>#N/A</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C62">
         <v>35541195</v>
@@ -6400,7 +6563,7 @@
         <v>7NTYXAFY</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C63">
         <v>35312187</v>
@@ -6419,7 +6582,7 @@
         <v>7Q9YZAM6</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C64">
         <v>35030590</v>
@@ -6433,12 +6596,12 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="str">
+      <c r="A65" t="e">
         <f>VLOOKUP(B65,IDs!B:C,2,FALSE)</f>
-        <v>PEQWRA3J</v>
+        <v>#N/A</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C65">
         <v>34426364</v>
@@ -6452,12 +6615,12 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
+      <c r="A66" t="e">
         <f>VLOOKUP(B66,IDs!B:C,2,FALSE)</f>
-        <v>PN6W5AN9</v>
+        <v>#N/A</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C66">
         <v>34356632</v>
@@ -6476,7 +6639,7 @@
         <v>PVPMSAF2</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C67">
         <v>33902899</v>
@@ -6490,12 +6653,12 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="str">
+      <c r="A68" t="e">
         <f>VLOOKUP(B68,IDs!B:C,2,FALSE)</f>
-        <v>PXSSYAMS</v>
+        <v>#N/A</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C68">
         <v>33366095</v>
@@ -6509,12 +6672,12 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="str">
+      <c r="A69" t="e">
         <f>VLOOKUP(B69,IDs!B:C,2,FALSE)</f>
-        <v>PTXV4AXM</v>
+        <v>#N/A</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C69">
         <v>32602162</v>
@@ -6528,12 +6691,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
+      <c r="A70" t="e">
         <f>VLOOKUP(B70,IDs!B:C,2,FALSE)</f>
-        <v>PUDYVABC</v>
+        <v>#N/A</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C70">
         <v>32190501</v>
@@ -6552,7 +6715,7 @@
         <v>PZRCCA4B</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>31957968</v>
@@ -6566,12 +6729,12 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="str">
+      <c r="A72" t="e">
         <f>VLOOKUP(B72,IDs!B:C,2,FALSE)</f>
-        <v>P6X2DAXR</v>
+        <v>#N/A</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72">
         <v>34208790</v>
@@ -6590,7 +6753,7 @@
         <v>P8EDGAPB</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C73">
         <v>33766366</v>
@@ -6604,12 +6767,12 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="str">
+      <c r="A74" t="e">
         <f>VLOOKUP(B74,IDs!B:C,2,FALSE)</f>
-        <v>P68H7A9B</v>
+        <v>#N/A</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C74">
         <v>32991495</v>
@@ -6623,9 +6786,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="str">
+      <c r="A75" t="e">
         <f>VLOOKUP(B75,IDs!B:C,2,FALSE)</f>
-        <v>PN8DTAR3</v>
+        <v>#N/A</v>
       </c>
       <c r="B75" t="s">
         <v>95</v>
@@ -6647,7 +6810,7 @@
         <v>PS474ALJ</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C76">
         <v>32129948</v>
@@ -6661,12 +6824,12 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="str">
+      <c r="A77" t="e">
         <f>VLOOKUP(B77,IDs!B:C,2,FALSE)</f>
-        <v>PL8R4ABE</v>
+        <v>#N/A</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C77">
         <v>31910473</v>
@@ -6680,12 +6843,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="str">
+      <c r="A78" t="e">
         <f>VLOOKUP(B78,IDs!B:C,2,FALSE)</f>
-        <v>PNVSCA2M</v>
+        <v>#N/A</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C78">
         <v>31546322</v>
@@ -6704,7 +6867,7 @@
         <v>PSQRRA4Y</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C79">
         <v>31158462</v>
@@ -6718,12 +6881,12 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
+      <c r="A80" t="e">
         <f>VLOOKUP(B80,IDs!B:C,2,FALSE)</f>
-        <v>PN732ANY</v>
+        <v>#N/A</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C80">
         <v>29172663</v>
@@ -6739,10 +6902,10 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f>VLOOKUP(B81,IDs!B:C,2,FALSE)</f>
-        <v>PEDUVAQY</v>
+        <v>7GMJYA4L</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C81">
         <v>27612806</v>
@@ -6756,12 +6919,12 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
+      <c r="A82" t="e">
         <f>VLOOKUP(B82,IDs!B:C,2,FALSE)</f>
-        <v>PN2SEAGQ</v>
+        <v>#N/A</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C82">
         <v>26547055</v>
@@ -6775,12 +6938,12 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="str">
+      <c r="A83" t="e">
         <f>VLOOKUP(B83,IDs!B:C,2,FALSE)</f>
-        <v>PTXVRA23</v>
+        <v>#N/A</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83">
         <v>21681035</v>
@@ -6799,7 +6962,7 @@
         <v>7QUJCA33</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>31475474</v>
@@ -6813,12 +6976,12 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="str">
+      <c r="A85" t="e">
         <f>VLOOKUP(B85,IDs!B:C,2,FALSE)</f>
-        <v>PBEX7A5W</v>
+        <v>#N/A</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C85">
         <v>30601782</v>
@@ -6832,12 +6995,12 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
+      <c r="A86">
         <f>VLOOKUP(B86,IDs!B:C,2,FALSE)</f>
-        <v>PNZBZA7H</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C86">
         <v>28550286</v>
@@ -6856,7 +7019,7 @@
         <v>PVYB6A5F</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C87">
         <v>27048359</v>
@@ -6875,7 +7038,7 @@
         <v>P8W89A5U</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C88">
         <v>26431053</v>
@@ -6912,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6947,16 +7110,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
+      <c r="A2" t="e">
         <f>VLOOKUP(B2,IDs!B:C,2,FALSE)</f>
-        <v>PN8DTAR3</v>
+        <v>#N/A</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -6971,15 +7134,15 @@
         <f>VLOOKUP(D2,SupportLists!G:H,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" t="e">
         <f>A2&amp;"|"&amp;E2</f>
-        <v>PN8DTAR3|1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
+      <c r="A3" t="e">
         <f>VLOOKUP(B3,IDs!B:C,2,FALSE)</f>
-        <v>PN8DTAR3</v>
+        <v>#N/A</v>
       </c>
       <c r="B3" t="s">
         <v>95</v>
@@ -6994,15 +7157,15 @@
         <f>VLOOKUP(D3,SupportLists!G:H,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" t="e">
         <f t="shared" ref="F3:F4" si="0">A3&amp;"|"&amp;E3</f>
-        <v>PN8DTAR3|1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
+      <c r="A4" t="e">
         <f>VLOOKUP(B4,IDs!B:C,2,FALSE)</f>
-        <v>PN8DTAR3</v>
+        <v>#N/A</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
@@ -7017,9 +7180,9 @@
         <f>VLOOKUP(D4,SupportLists!G:H,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" t="e">
         <f t="shared" si="0"/>
-        <v>PN8DTAR3|1</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -7087,9 +7250,9 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="e">
         <f>VLOOKUP(A2,IDs!A:C,2,FALSE)</f>
-        <v>Ares</v>
+        <v>#N/A</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -7097,12 +7260,12 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" t="e">
         <f>VLOOKUP(A3,IDs!A:C,2,FALSE)</f>
-        <v>Artiemoose</v>
+        <v>#N/A</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7114,7 +7277,7 @@
         <v>BasilFawlty</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7136,40 +7299,40 @@
         <v>Busijay</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" t="e">
         <f>VLOOKUP(A7,IDs!A:C,2,FALSE)</f>
-        <v>CastyBunbun</v>
+        <v>#N/A</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" t="e">
         <f>VLOOKUP(A8,IDs!A:C,2,FALSE)</f>
-        <v>CastyDRabbit</v>
+        <v>#N/A</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" t="e">
         <f>VLOOKUP(A9,IDs!A:C,2,FALSE)</f>
-        <v>Cheesecake</v>
+        <v>#N/A</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -7182,7 +7345,7 @@
         <v>chenjun</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -7194,7 +7357,7 @@
         <v>CMLTO</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -7206,7 +7369,7 @@
         <v>Corba59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -7218,7 +7381,7 @@
         <v>CrankyCajun</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -7230,7 +7393,7 @@
         <v>Daeloan</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -7247,12 +7410,12 @@
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" t="e">
         <f>VLOOKUP(A16,IDs!A:C,2,FALSE)</f>
-        <v>DiaboliLair</v>
+        <v>#N/A</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7264,7 +7427,7 @@
         <v>dragSD</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7281,21 +7444,21 @@
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" t="e">
         <f>VLOOKUP(A19,IDs!A:C,2,FALSE)</f>
-        <v>dryfondue</v>
+        <v>#N/A</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" t="e">
         <f>VLOOKUP(A20,IDs!A:C,2,FALSE)</f>
-        <v>Dumpling</v>
+        <v>#N/A</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -7303,12 +7466,12 @@
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" t="e">
         <f>VLOOKUP(A21,IDs!A:C,2,FALSE)</f>
-        <v>e.player</v>
+        <v>#N/A</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7330,7 +7493,7 @@
         <v>Evita.Q</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7352,7 +7515,7 @@
         <v>finanzamtt</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7364,19 +7527,19 @@
         <v>FloridaGirl4321</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" t="e">
         <f>VLOOKUP(A27,IDs!A:C,2,FALSE)</f>
-        <v>Garadriel</v>
+        <v>#N/A</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -7403,12 +7566,12 @@
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" t="e">
         <f>VLOOKUP(A30,IDs!A:C,2,FALSE)</f>
-        <v>Greatheart</v>
+        <v>#N/A</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -7420,7 +7583,7 @@
         <v>Hallen98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -7432,19 +7595,19 @@
         <v>I am Groot</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" t="e">
         <f>VLOOKUP(A33,IDs!A:C,2,FALSE)</f>
-        <v>izissuki</v>
+        <v>#N/A</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7456,7 +7619,7 @@
         <v>JJLegend70</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -7473,9 +7636,9 @@
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" t="e">
         <f>VLOOKUP(A36,IDs!A:C,2,FALSE)</f>
-        <v>Kevin1707</v>
+        <v>#N/A</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -7483,12 +7646,12 @@
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" t="e">
         <f>VLOOKUP(A37,IDs!A:C,2,FALSE)</f>
-        <v>Khaleesi</v>
+        <v>#N/A</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -7510,7 +7673,7 @@
         <v>Kivrin</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -7522,7 +7685,7 @@
         <v>Kyredneck30</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -7534,7 +7697,7 @@
         <v>LESINVINCIBLES</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -7556,7 +7719,7 @@
         <v>LewkSkywatcher</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -7568,7 +7731,7 @@
         <v>Lililulu</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -7580,16 +7743,16 @@
         <v>LittleKnights</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" t="e">
         <f>VLOOKUP(A46,IDs!A:C,2,FALSE)</f>
-        <v>Loki</v>
+        <v>#N/A</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -7612,7 +7775,7 @@
         <v>MadSan</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -7644,7 +7807,7 @@
         <v>MizzBond</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -7656,7 +7819,7 @@
         <v>MR.Grinch</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -7665,7 +7828,7 @@
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(A53,IDs!A:C,2,FALSE)</f>
-        <v>Mr.Skieyagi69</v>
+        <v>Kevo1707</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -7673,9 +7836,9 @@
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" t="e">
         <f>VLOOKUP(A54,IDs!A:C,2,FALSE)</f>
-        <v>MΛDMONK</v>
+        <v>#N/A</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -7698,7 +7861,7 @@
         <v>ocdMonkey</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -7720,19 +7883,19 @@
         <v>OldManLogan</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" t="e">
         <f>VLOOKUP(A59,IDs!A:C,2,FALSE)</f>
-        <v>Oly-Prime</v>
+        <v>#N/A</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -7744,7 +7907,7 @@
         <v>Omilixo</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -7756,19 +7919,19 @@
         <v>OptimusOssi</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62" t="e">
         <f>VLOOKUP(A62,IDs!A:C,2,FALSE)</f>
-        <v>Peachypalace</v>
+        <v>#N/A</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -7780,16 +7943,16 @@
         <v>POLAR-BEAR</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64" t="e">
         <f>VLOOKUP(A64,IDs!A:C,2,FALSE)</f>
-        <v>Protos</v>
+        <v>#N/A</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -7802,7 +7965,7 @@
         <v>RaquelsHero</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -7814,7 +7977,7 @@
         <v>RJShuda</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -7826,19 +7989,19 @@
         <v>RockerFoo</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" t="e">
         <f>VLOOKUP(A68,IDs!A:C,2,FALSE)</f>
-        <v>Rohese</v>
+        <v>#N/A</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -7850,7 +8013,7 @@
         <v>Ruby Sunday</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -7872,7 +8035,7 @@
         <v>Schneeman</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -7884,7 +8047,7 @@
         <v>Schockaletta</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -7911,9 +8074,9 @@
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" t="e">
         <f>VLOOKUP(A75,IDs!A:C,2,FALSE)</f>
-        <v>SilentSlayer</v>
+        <v>#N/A</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -7926,7 +8089,7 @@
         <v>SoulKnightSK</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -7938,7 +8101,7 @@
         <v>Tassin</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -7960,31 +8123,31 @@
         <v>The_Valley</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" t="e">
         <f>VLOOKUP(A80,IDs!A:C,2,FALSE)</f>
-        <v>Thyri</v>
+        <v>#N/A</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" t="e">
         <f>VLOOKUP(A81,IDs!A:C,2,FALSE)</f>
-        <v>PattiCakes</v>
+        <v>#N/A</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -7996,16 +8159,16 @@
         <v>TrebleMaker</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83" t="e">
         <f>VLOOKUP(A83,IDs!A:C,2,FALSE)</f>
-        <v>Tuxe</v>
+        <v>#N/A</v>
       </c>
       <c r="C83" s="3"/>
     </row>
@@ -8018,7 +8181,7 @@
         <v>Valessa</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -8040,7 +8203,7 @@
         <v>WhoDey812</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -8052,7 +8215,7 @@
         <v>xljhx31</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -8064,7 +8227,7 @@
         <v>Xorron</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -8112,15 +8275,15 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B2">
         <f>MAX(E:E)</f>
@@ -8130,22 +8293,22 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B3">
         <f>MAX(H:H)</f>
@@ -8164,57 +8327,57 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J4" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J5" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J6" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J7" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J8" s="3" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J9" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J10" s="3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J11" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J12" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J13" s="3" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
